--- a/QuantLibXL/StandaloneExamples/Bugs/qlSimpleQuoteSetValue_BugFix.xlsx
+++ b/QuantLibXL/StandaloneExamples/Bugs/qlSimpleQuoteSetValue_BugFix.xlsx
@@ -45,18 +45,26 @@
     <t>Actual result</t>
   </si>
   <si>
-    <t>Hit Ctrl-Al-t-F9 to force a full recalc.</t>
-  </si>
-  <si>
     <t>This spreadsheet demonstrates changes in the behavior of function qlSimpleQuoteSetValue() introduced in QuantLibXL version 1.5.0.</t>
+  </si>
+  <si>
+    <t>Hit Ctrl-Alt-F9 to force a full recalc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,47 +411,47 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="1" t="str">
         <f>_xll.qlxlVersion()</f>
         <v>QuantLibXL 1.5.0-debug</v>
       </c>
@@ -450,7 +459,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>_xll.qlSimpleQuote(,1)</f>
-        <v>obj_00003#0005</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -473,7 +482,7 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>_xll.qlSimpleQuote(,1)</f>
-        <v>obj_00000#0005</v>
+        <v>obj_00000#0000</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -496,7 +505,7 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>_xll.qlSimpleQuote(,1)</f>
-        <v>obj_00002#0005</v>
+        <v>obj_00001#0000</v>
       </c>
       <c r="C10" t="e">
         <f>NA()</f>
@@ -520,7 +529,7 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>_xll.qlSimpleQuote(,1)</f>
-        <v>obj_00001#0005</v>
+        <v>obj_00003#0000</v>
       </c>
       <c r="C11" t="e">
         <f>EXP(234567)</f>
@@ -543,6 +552,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
